--- a/main_board/fab/pos/bonkulator_cpl.xlsx
+++ b/main_board/fab/pos/bonkulator_cpl.xlsx
@@ -8,19 +8,484 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\bonkulator\main_board\fab\pos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19613FD2-02ED-4697-B892-4FCA457F120F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5262749C-999A-4597-891B-E1639E56B595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="main_board-bottom-pos.2.3" sheetId="1" r:id="rId1"/>
+    <sheet name="main_board-bottom-pos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="160">
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>C36</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>J18</t>
+  </si>
+  <si>
+    <t>J19</t>
+  </si>
+  <si>
+    <t>J20</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R32</t>
+  </si>
+  <si>
+    <t>R33</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>R35</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>R37</t>
+  </si>
+  <si>
+    <t>R38</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>R45</t>
+  </si>
+  <si>
+    <t>R46</t>
+  </si>
+  <si>
+    <t>R47</t>
+  </si>
+  <si>
+    <t>R48</t>
+  </si>
+  <si>
+    <t>R49</t>
+  </si>
+  <si>
+    <t>R50</t>
+  </si>
+  <si>
+    <t>R51</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>R53</t>
+  </si>
+  <si>
+    <t>R54</t>
+  </si>
+  <si>
+    <t>R55</t>
+  </si>
+  <si>
+    <t>R66</t>
+  </si>
+  <si>
+    <t>R67</t>
+  </si>
+  <si>
+    <t>R68</t>
+  </si>
+  <si>
+    <t>R69</t>
+  </si>
+  <si>
+    <t>R70</t>
+  </si>
+  <si>
+    <t>R71</t>
+  </si>
+  <si>
+    <t>R72</t>
+  </si>
+  <si>
+    <t>R97</t>
+  </si>
+  <si>
+    <t>R98</t>
+  </si>
+  <si>
+    <t>R99</t>
+  </si>
+  <si>
+    <t>R100</t>
+  </si>
+  <si>
+    <t>R125</t>
+  </si>
+  <si>
+    <t>R126</t>
+  </si>
+  <si>
+    <t>R127</t>
+  </si>
+  <si>
+    <t>R128</t>
+  </si>
+  <si>
+    <t>R141</t>
+  </si>
+  <si>
+    <t>R142</t>
+  </si>
+  <si>
+    <t>R143</t>
+  </si>
+  <si>
+    <t>TP1</t>
+  </si>
+  <si>
+    <t>TP2</t>
+  </si>
+  <si>
+    <t>TP3</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>U19</t>
+  </si>
   <si>
     <t>Designator</t>
   </si>
@@ -35,651 +500,6 @@
   </si>
   <si>
     <t>Layer</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>C30</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>C32</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>C36</t>
-  </si>
-  <si>
-    <t>C37</t>
-  </si>
-  <si>
-    <t>C38</t>
-  </si>
-  <si>
-    <t>C39</t>
-  </si>
-  <si>
-    <t>C40</t>
-  </si>
-  <si>
-    <t>C41</t>
-  </si>
-  <si>
-    <t>C42</t>
-  </si>
-  <si>
-    <t>C43</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>D14</t>
-  </si>
-  <si>
-    <t>D15</t>
-  </si>
-  <si>
-    <t>D16</t>
-  </si>
-  <si>
-    <t>D17</t>
-  </si>
-  <si>
-    <t>D18</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>J18</t>
-  </si>
-  <si>
-    <t>J19</t>
-  </si>
-  <si>
-    <t>J20</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>R28</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>R31</t>
-  </si>
-  <si>
-    <t>R32</t>
-  </si>
-  <si>
-    <t>R33</t>
-  </si>
-  <si>
-    <t>R34</t>
-  </si>
-  <si>
-    <t>R35</t>
-  </si>
-  <si>
-    <t>R36</t>
-  </si>
-  <si>
-    <t>R37</t>
-  </si>
-  <si>
-    <t>R38</t>
-  </si>
-  <si>
-    <t>R39</t>
-  </si>
-  <si>
-    <t>R40</t>
-  </si>
-  <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>R43</t>
-  </si>
-  <si>
-    <t>R44</t>
-  </si>
-  <si>
-    <t>R45</t>
-  </si>
-  <si>
-    <t>R46</t>
-  </si>
-  <si>
-    <t>R47</t>
-  </si>
-  <si>
-    <t>R48</t>
-  </si>
-  <si>
-    <t>R49</t>
-  </si>
-  <si>
-    <t>R50</t>
-  </si>
-  <si>
-    <t>R51</t>
-  </si>
-  <si>
-    <t>R52</t>
-  </si>
-  <si>
-    <t>R53</t>
-  </si>
-  <si>
-    <t>R54</t>
-  </si>
-  <si>
-    <t>R55</t>
-  </si>
-  <si>
-    <t>R66</t>
-  </si>
-  <si>
-    <t>R67</t>
-  </si>
-  <si>
-    <t>R68</t>
-  </si>
-  <si>
-    <t>R69</t>
-  </si>
-  <si>
-    <t>R70</t>
-  </si>
-  <si>
-    <t>R71</t>
-  </si>
-  <si>
-    <t>R72</t>
-  </si>
-  <si>
-    <t>R73</t>
-  </si>
-  <si>
-    <t>R74</t>
-  </si>
-  <si>
-    <t>R75</t>
-  </si>
-  <si>
-    <t>R76</t>
-  </si>
-  <si>
-    <t>R77</t>
-  </si>
-  <si>
-    <t>R78</t>
-  </si>
-  <si>
-    <t>R79</t>
-  </si>
-  <si>
-    <t>R80</t>
-  </si>
-  <si>
-    <t>R81</t>
-  </si>
-  <si>
-    <t>R82</t>
-  </si>
-  <si>
-    <t>R83</t>
-  </si>
-  <si>
-    <t>R84</t>
-  </si>
-  <si>
-    <t>R85</t>
-  </si>
-  <si>
-    <t>R86</t>
-  </si>
-  <si>
-    <t>R87</t>
-  </si>
-  <si>
-    <t>R88</t>
-  </si>
-  <si>
-    <t>R89</t>
-  </si>
-  <si>
-    <t>R90</t>
-  </si>
-  <si>
-    <t>R91</t>
-  </si>
-  <si>
-    <t>R92</t>
-  </si>
-  <si>
-    <t>R93</t>
-  </si>
-  <si>
-    <t>R94</t>
-  </si>
-  <si>
-    <t>R95</t>
-  </si>
-  <si>
-    <t>R96</t>
-  </si>
-  <si>
-    <t>R97</t>
-  </si>
-  <si>
-    <t>R98</t>
-  </si>
-  <si>
-    <t>R99</t>
-  </si>
-  <si>
-    <t>R100</t>
-  </si>
-  <si>
-    <t>R101</t>
-  </si>
-  <si>
-    <t>R102</t>
-  </si>
-  <si>
-    <t>R103</t>
-  </si>
-  <si>
-    <t>R104</t>
-  </si>
-  <si>
-    <t>R105</t>
-  </si>
-  <si>
-    <t>R106</t>
-  </si>
-  <si>
-    <t>R107</t>
-  </si>
-  <si>
-    <t>R108</t>
-  </si>
-  <si>
-    <t>R109</t>
-  </si>
-  <si>
-    <t>R110</t>
-  </si>
-  <si>
-    <t>R111</t>
-  </si>
-  <si>
-    <t>R112</t>
-  </si>
-  <si>
-    <t>R113</t>
-  </si>
-  <si>
-    <t>R114</t>
-  </si>
-  <si>
-    <t>R115</t>
-  </si>
-  <si>
-    <t>R116</t>
-  </si>
-  <si>
-    <t>R117</t>
-  </si>
-  <si>
-    <t>R118</t>
-  </si>
-  <si>
-    <t>R119</t>
-  </si>
-  <si>
-    <t>R120</t>
-  </si>
-  <si>
-    <t>R121</t>
-  </si>
-  <si>
-    <t>R122</t>
-  </si>
-  <si>
-    <t>R123</t>
-  </si>
-  <si>
-    <t>R124</t>
-  </si>
-  <si>
-    <t>R125</t>
-  </si>
-  <si>
-    <t>R126</t>
-  </si>
-  <si>
-    <t>R127</t>
-  </si>
-  <si>
-    <t>R128</t>
-  </si>
-  <si>
-    <t>R129</t>
-  </si>
-  <si>
-    <t>R130</t>
-  </si>
-  <si>
-    <t>R131</t>
-  </si>
-  <si>
-    <t>R132</t>
-  </si>
-  <si>
-    <t>R133</t>
-  </si>
-  <si>
-    <t>R134</t>
-  </si>
-  <si>
-    <t>R135</t>
-  </si>
-  <si>
-    <t>R136</t>
-  </si>
-  <si>
-    <t>R137</t>
-  </si>
-  <si>
-    <t>R138</t>
-  </si>
-  <si>
-    <t>R139</t>
-  </si>
-  <si>
-    <t>R140</t>
-  </si>
-  <si>
-    <t>R141</t>
-  </si>
-  <si>
-    <t>R142</t>
-  </si>
-  <si>
-    <t>R143</t>
-  </si>
-  <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t>TP2</t>
-  </si>
-  <si>
-    <t>TP3</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>U12</t>
-  </si>
-  <si>
-    <t>U14</t>
-  </si>
-  <si>
-    <t>U15</t>
-  </si>
-  <si>
-    <t>U16</t>
-  </si>
-  <si>
-    <t>U17</t>
-  </si>
-  <si>
-    <t>U18</t>
-  </si>
-  <si>
-    <t>U19</t>
   </si>
 </sst>
 </file>
@@ -1520,32 +1340,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>-61.7</v>
@@ -1557,12 +1379,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>-61.75</v>
@@ -1574,12 +1396,12 @@
         <v>-90</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>-96.05</v>
@@ -1591,12 +1413,12 @@
         <v>-90</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>-94.95</v>
@@ -1608,12 +1430,12 @@
         <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>-96</v>
@@ -1625,12 +1447,12 @@
         <v>-90</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>-90</v>
@@ -1642,12 +1464,12 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>-106.35</v>
@@ -1659,12 +1481,12 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>-64.55</v>
@@ -1676,12 +1498,12 @@
         <v>-90</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>-53.5</v>
@@ -1693,12 +1515,12 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>-72.849999999999994</v>
@@ -1710,12 +1532,12 @@
         <v>-90</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>-83.2</v>
@@ -1727,12 +1549,12 @@
         <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>-79.95</v>
@@ -1744,12 +1566,12 @@
         <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>-79.8</v>
@@ -1761,12 +1583,12 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>-66.424999999999997</v>
@@ -1778,12 +1600,12 @@
         <v>-90</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>-67.650000000000006</v>
@@ -1795,12 +1617,12 @@
         <v>-90</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>-80.599999999999994</v>
@@ -1812,12 +1634,12 @@
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>-72.55</v>
@@ -1829,12 +1651,12 @@
         <v>-90</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>-77.5</v>
@@ -1846,12 +1668,12 @@
         <v>-90</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>-96</v>
@@ -1863,12 +1685,12 @@
         <v>-90</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>-90</v>
@@ -1880,12 +1702,12 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>-96.05</v>
@@ -1897,12 +1719,12 @@
         <v>-90</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>-90</v>
@@ -1914,12 +1736,12 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>-76.8</v>
@@ -1931,12 +1753,12 @@
         <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>-100.47499999999999</v>
@@ -1948,12 +1770,12 @@
         <v>180</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>-91.9</v>
@@ -1965,12 +1787,12 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>-83.35</v>
@@ -1982,12 +1804,12 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>-88.8</v>
@@ -1999,12 +1821,12 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>-68.575000000000003</v>
@@ -2016,12 +1838,12 @@
         <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>-71.25</v>
@@ -2033,12 +1855,12 @@
         <v>-90</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>-77</v>
@@ -2050,12 +1872,12 @@
         <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>-70.95</v>
@@ -2067,12 +1889,12 @@
         <v>-90</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>-81.099999999999994</v>
@@ -2084,12 +1906,12 @@
         <v>-90</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>-115.7</v>
@@ -2101,12 +1923,12 @@
         <v>-90</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>-119.65</v>
@@ -2118,29 +1940,29 @@
         <v>-90</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>-115.8</v>
+        <v>-112.75</v>
       </c>
       <c r="C36">
-        <v>-98.25</v>
+        <v>-92.05</v>
       </c>
       <c r="D36">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>-119.75</v>
@@ -2152,12 +1974,12 @@
         <v>-90</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>-115.85</v>
@@ -2169,12 +1991,12 @@
         <v>-90</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>-119.625</v>
@@ -2186,12 +2008,12 @@
         <v>-90</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>-115.675</v>
@@ -2203,12 +2025,12 @@
         <v>-90</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>-119.6</v>
@@ -2220,12 +2042,12 @@
         <v>-90</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>-69.400000000000006</v>
@@ -2237,12 +2059,12 @@
         <v>-90</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>-69.75</v>
@@ -2254,12 +2076,12 @@
         <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>-64.5</v>
@@ -2271,12 +2093,12 @@
         <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>-63.45</v>
@@ -2288,12 +2110,12 @@
         <v>-90</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>-63.65</v>
@@ -2305,12 +2127,12 @@
         <v>-90</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>-69.75</v>
@@ -2322,12 +2144,12 @@
         <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>-65.55</v>
@@ -2339,12 +2161,12 @@
         <v>90</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>-63.75</v>
@@ -2356,12 +2178,12 @@
         <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>-64.55</v>
@@ -2373,12 +2195,12 @@
         <v>-90</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>-58.75</v>
@@ -2390,12 +2212,12 @@
         <v>90</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>-53.5</v>
@@ -2407,12 +2229,12 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>-73.8</v>
@@ -2424,12 +2246,12 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>-73.974999999999994</v>
@@ -2441,29 +2263,29 @@
         <v>180</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>-82.05</v>
+        <v>-72.375</v>
       </c>
       <c r="C55">
-        <v>-134.6</v>
+        <v>-132.07499999999999</v>
       </c>
       <c r="D55">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>-77.05</v>
@@ -2475,12 +2297,12 @@
         <v>180</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>-53.1</v>
@@ -2492,12 +2314,12 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>-52.5</v>
@@ -2509,12 +2331,12 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>-100</v>
@@ -2526,12 +2348,12 @@
         <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>-100</v>
@@ -2543,12 +2365,12 @@
         <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>-97.474999999999994</v>
@@ -2560,12 +2382,12 @@
         <v>90</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>-68.2</v>
@@ -2577,12 +2399,12 @@
         <v>180</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>-64.849999999999994</v>
@@ -2594,12 +2416,12 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>-64.75</v>
@@ -2611,12 +2433,12 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>-64.5</v>
@@ -2628,12 +2450,12 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>-64.650000000000006</v>
@@ -2645,12 +2467,12 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>-72</v>
@@ -2662,12 +2484,12 @@
         <v>90</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>-72.95</v>
@@ -2679,12 +2501,12 @@
         <v>90</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>-72.174999999999997</v>
@@ -2696,12 +2518,12 @@
         <v>90</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>-71.900000000000006</v>
@@ -2713,12 +2535,12 @@
         <v>90</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>-65.599999999999994</v>
@@ -2730,12 +2552,12 @@
         <v>-90</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>-67.25</v>
@@ -2747,12 +2569,12 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>-65.599999999999994</v>
@@ -2764,12 +2586,12 @@
         <v>90</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>-87.9</v>
@@ -2781,12 +2603,12 @@
         <v>180</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>-87.9</v>
@@ -2798,12 +2620,12 @@
         <v>180</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>-96.2</v>
@@ -2815,12 +2637,12 @@
         <v>180</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>-100.1</v>
@@ -2832,12 +2654,12 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>-87.85</v>
@@ -2849,12 +2671,12 @@
         <v>180</v>
       </c>
       <c r="E78" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>-87.85</v>
@@ -2866,12 +2688,12 @@
         <v>180</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>-99.2</v>
@@ -2883,12 +2705,12 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>-99.2</v>
@@ -2900,12 +2722,12 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>-87.75</v>
@@ -2917,12 +2739,12 @@
         <v>180</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>-100.1</v>
@@ -2934,12 +2756,12 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>-87.85</v>
@@ -2951,12 +2773,12 @@
         <v>180</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>-95.45</v>
@@ -2968,12 +2790,12 @@
         <v>180</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>-89</v>
@@ -2985,12 +2807,12 @@
         <v>180</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>-100.1</v>
@@ -3002,12 +2824,12 @@
         <v>180</v>
       </c>
       <c r="E87" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>-87.85</v>
@@ -3019,12 +2841,12 @@
         <v>180</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>-99.2</v>
@@ -3036,12 +2858,12 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>-83</v>
@@ -3053,12 +2875,12 @@
         <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>-76.75</v>
@@ -3070,12 +2892,12 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>-78.8</v>
@@ -3087,12 +2909,12 @@
         <v>-90</v>
       </c>
       <c r="E92" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>-79.8</v>
@@ -3104,12 +2926,12 @@
         <v>180</v>
       </c>
       <c r="E93" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>-76</v>
@@ -3121,12 +2943,12 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>-91.9</v>
@@ -3138,12 +2960,12 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>-73.75</v>
@@ -3155,12 +2977,12 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>-94.8</v>
@@ -3172,12 +2994,12 @@
         <v>90</v>
       </c>
       <c r="E97" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>-91.9</v>
@@ -3189,12 +3011,12 @@
         <v>180</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>-87.85</v>
@@ -3206,12 +3028,12 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>-77.849999999999994</v>
@@ -3223,12 +3045,12 @@
         <v>180</v>
       </c>
       <c r="E100" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>-59.924999999999997</v>
@@ -3240,12 +3062,12 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>-87.85</v>
@@ -3257,12 +3079,12 @@
         <v>180</v>
       </c>
       <c r="E102" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B103">
         <v>-87.85</v>
@@ -3274,12 +3096,12 @@
         <v>180</v>
       </c>
       <c r="E103" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>-99.15</v>
@@ -3291,12 +3113,12 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B105">
         <v>-99.15</v>
@@ -3308,12 +3130,12 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B106">
         <v>-87.85</v>
@@ -3325,12 +3147,12 @@
         <v>180</v>
       </c>
       <c r="E106" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B107">
         <v>-87.85</v>
@@ -3342,12 +3164,12 @@
         <v>180</v>
       </c>
       <c r="E107" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>-99.2</v>
@@ -3359,12 +3181,12 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>-99.2</v>
@@ -3376,12 +3198,12 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>-87.85</v>
@@ -3393,12 +3215,12 @@
         <v>180</v>
       </c>
       <c r="E110" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>-96.05</v>
@@ -3410,12 +3232,12 @@
         <v>90</v>
       </c>
       <c r="E111" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>-87.85</v>
@@ -3427,12 +3249,12 @@
         <v>180</v>
       </c>
       <c r="E112" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>-96</v>
@@ -3444,12 +3266,12 @@
         <v>90</v>
       </c>
       <c r="E113" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>-87.85</v>
@@ -3461,12 +3283,12 @@
         <v>180</v>
       </c>
       <c r="E114" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B115">
         <v>-99.15</v>
@@ -3478,12 +3300,12 @@
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>-87.85</v>
@@ -3495,12 +3317,12 @@
         <v>180</v>
       </c>
       <c r="E116" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>-99.2</v>
@@ -3512,12 +3334,12 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B118">
         <v>-86.85</v>
@@ -3529,12 +3351,12 @@
         <v>180</v>
       </c>
       <c r="E118" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>-86.6</v>
@@ -3546,12 +3368,12 @@
         <v>180</v>
       </c>
       <c r="E119" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>-70.2</v>
@@ -3563,12 +3385,12 @@
         <v>90</v>
       </c>
       <c r="E120" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>-108.05</v>
@@ -3580,12 +3402,12 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>-108.05</v>
@@ -3597,29 +3419,29 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B123">
-        <v>-105.55</v>
+        <v>-108.05</v>
       </c>
       <c r="C123">
-        <v>-86.8</v>
+        <v>-86.85</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B124">
         <v>-105.6</v>
@@ -3631,1554 +3453,534 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B125">
-        <v>-117.65</v>
+        <v>-108.35</v>
       </c>
       <c r="C125">
-        <v>-62.15</v>
+        <v>-113</v>
       </c>
       <c r="D125">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B126">
-        <v>-119.6</v>
+        <v>-108.5</v>
       </c>
       <c r="C126">
-        <v>-73.55</v>
+        <v>-124.85</v>
       </c>
       <c r="D126">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B127">
-        <v>-117.8</v>
+        <v>-108.8</v>
       </c>
       <c r="C127">
-        <v>-86.65</v>
+        <v>-136.80000000000001</v>
       </c>
       <c r="D127">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B128">
-        <v>-119.7</v>
+        <v>-108.55</v>
       </c>
       <c r="C128">
-        <v>-98.25</v>
+        <v>-148.9</v>
       </c>
       <c r="D128">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B129">
-        <v>-115.7</v>
+        <v>-61.1</v>
       </c>
       <c r="C129">
-        <v>-62.15</v>
+        <v>-54.15</v>
       </c>
       <c r="D129">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="E129" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B130">
-        <v>-117.65</v>
+        <v>-77.650000000000006</v>
       </c>
       <c r="C130">
-        <v>-73.55</v>
+        <v>-61.075000000000003</v>
       </c>
       <c r="D130">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="E130" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B131">
-        <v>-115.85</v>
+        <v>-87.275000000000006</v>
       </c>
       <c r="C131">
-        <v>-86.65</v>
+        <v>-52.3</v>
       </c>
       <c r="D131">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="E131" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B132">
-        <v>-117.75</v>
+        <v>-89.85</v>
       </c>
       <c r="C132">
-        <v>-98.25</v>
+        <v>-52.274999999999999</v>
       </c>
       <c r="D132">
         <v>-90</v>
       </c>
       <c r="E132" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B133">
-        <v>-110.3</v>
+        <v>-65.224999999999994</v>
       </c>
       <c r="C133">
-        <v>-67.8</v>
+        <v>-67.25</v>
       </c>
       <c r="D133">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="E133" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B134">
-        <v>-113.05</v>
+        <v>-62</v>
       </c>
       <c r="C134">
-        <v>-78.7</v>
+        <v>-105.925</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B135">
-        <v>-113</v>
+        <v>-58.424999999999997</v>
       </c>
       <c r="C135">
-        <v>-86.05</v>
+        <v>-106.425</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="E135" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B136">
-        <v>-112.95</v>
+        <v>-68.400000000000006</v>
       </c>
       <c r="C136">
-        <v>-102.8</v>
+        <v>-157</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E136" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>-113.2</v>
+        <v>-95.7</v>
       </c>
       <c r="C137">
-        <v>-66.8</v>
+        <v>-157</v>
       </c>
       <c r="D137">
         <v>180</v>
       </c>
       <c r="E137" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B138">
-        <v>-116.8</v>
+        <v>-75.8</v>
       </c>
       <c r="C138">
-        <v>-78.7</v>
+        <v>-103.9</v>
       </c>
       <c r="D138">
         <v>180</v>
       </c>
       <c r="E138" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B139">
-        <v>-113.2</v>
+        <v>-93.5</v>
       </c>
       <c r="C139">
-        <v>-90.55</v>
+        <v>-81.45</v>
       </c>
       <c r="D139">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>-116.75</v>
+        <v>-93.5</v>
       </c>
       <c r="C140">
-        <v>-102.8</v>
+        <v>-93.4</v>
       </c>
       <c r="D140">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B141">
-        <v>-112.5</v>
+        <v>-117.8</v>
       </c>
       <c r="C141">
-        <v>-61.9</v>
+        <v>-67.95</v>
       </c>
       <c r="D141">
-        <v>180</v>
+        <v>-90</v>
       </c>
       <c r="E141" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B142">
-        <v>-112.5</v>
+        <v>-60.7</v>
       </c>
       <c r="C142">
-        <v>-74.2</v>
+        <v>-101.75</v>
       </c>
       <c r="D142">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B143">
-        <v>-115.85</v>
+        <v>-73.5</v>
       </c>
       <c r="C143">
-        <v>-82.85</v>
+        <v>-93.65</v>
       </c>
       <c r="D143">
         <v>90</v>
       </c>
       <c r="E143" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B144">
-        <v>-112.6</v>
+        <v>-70.325000000000003</v>
       </c>
       <c r="C144">
-        <v>-97.85</v>
+        <v>-75.849999999999994</v>
       </c>
       <c r="D144">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E144" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B145">
-        <v>-112.5</v>
+        <v>-93.5</v>
       </c>
       <c r="C145">
-        <v>-56.2</v>
+        <v>-119.45</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B146">
-        <v>-113.2</v>
+        <v>-93.5</v>
       </c>
       <c r="C146">
-        <v>-69.25</v>
+        <v>-143.44999999999999</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B147">
-        <v>-112.5</v>
+        <v>-78.7</v>
       </c>
       <c r="C147">
-        <v>-81.2</v>
+        <v>-120.9</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E147" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B148">
-        <v>-112.5</v>
+        <v>-99.325000000000003</v>
       </c>
       <c r="C148">
-        <v>-92.6</v>
+        <v>-130.6</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B149">
-        <v>-108.35</v>
+        <v>-86.3</v>
       </c>
       <c r="C149">
-        <v>-113</v>
+        <v>-129.94999999999999</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E149" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B150">
-        <v>-108.5</v>
+        <v>-117.8</v>
       </c>
       <c r="C150">
-        <v>-124.85</v>
+        <v>-92.6</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="E150" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B151">
-        <v>-108.8</v>
+        <v>-69.724999999999994</v>
       </c>
       <c r="C151">
-        <v>-136.80000000000001</v>
+        <v>-88.075000000000003</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B152">
-        <v>-108.55</v>
+        <v>-86.3</v>
       </c>
       <c r="C152">
-        <v>-148.9</v>
+        <v>-61.8</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E152" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B153">
-        <v>-117.65</v>
+        <v>-117.8</v>
       </c>
       <c r="C153">
-        <v>-112</v>
+        <v>-117.95</v>
       </c>
       <c r="D153">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="E153" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B154">
-        <v>-119.75</v>
+        <v>-117.8</v>
       </c>
       <c r="C154">
-        <v>-123.6</v>
+        <v>-141.85</v>
       </c>
       <c r="D154">
         <v>-90</v>
       </c>
       <c r="E154" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B155">
-        <v>-117.6</v>
+        <v>-69.3</v>
       </c>
       <c r="C155">
-        <v>-135.94999999999999</v>
+        <v>-143.57499999999999</v>
       </c>
       <c r="D155">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E155" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>160</v>
-      </c>
-      <c r="B156">
-        <v>-119.65</v>
-      </c>
-      <c r="C156">
-        <v>-147.94999999999999</v>
-      </c>
-      <c r="D156">
-        <v>-90</v>
-      </c>
-      <c r="E156" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>161</v>
-      </c>
-      <c r="B157">
-        <v>-115.7</v>
-      </c>
-      <c r="C157">
-        <v>-112</v>
-      </c>
-      <c r="D157">
-        <v>90</v>
-      </c>
-      <c r="E157" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>162</v>
-      </c>
-      <c r="B158">
-        <v>-117.8</v>
-      </c>
-      <c r="C158">
-        <v>-123.6</v>
-      </c>
-      <c r="D158">
-        <v>-90</v>
-      </c>
-      <c r="E158" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>163</v>
-      </c>
-      <c r="B159">
-        <v>-115.65</v>
-      </c>
-      <c r="C159">
-        <v>-135.94999999999999</v>
-      </c>
-      <c r="D159">
-        <v>90</v>
-      </c>
-      <c r="E159" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>164</v>
-      </c>
-      <c r="B160">
-        <v>-117.65</v>
-      </c>
-      <c r="C160">
-        <v>-147.94999999999999</v>
-      </c>
-      <c r="D160">
-        <v>-90</v>
-      </c>
-      <c r="E160" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>165</v>
-      </c>
-      <c r="B161">
-        <v>-112.8</v>
-      </c>
-      <c r="C161">
-        <v>-111.85</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>166</v>
-      </c>
-      <c r="B162">
-        <v>-113.05</v>
-      </c>
-      <c r="C162">
-        <v>-128.80000000000001</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>167</v>
-      </c>
-      <c r="B163">
-        <v>-113.05</v>
-      </c>
-      <c r="C163">
-        <v>-140.55000000000001</v>
-      </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="E163" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>168</v>
-      </c>
-      <c r="B164">
-        <v>-111.3</v>
-      </c>
-      <c r="C164">
-        <v>-153</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>169</v>
-      </c>
-      <c r="B165">
-        <v>-113.2</v>
-      </c>
-      <c r="C165">
-        <v>-116.5</v>
-      </c>
-      <c r="D165">
-        <v>180</v>
-      </c>
-      <c r="E165" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>170</v>
-      </c>
-      <c r="B166">
-        <v>-116.85</v>
-      </c>
-      <c r="C166">
-        <v>-128.80000000000001</v>
-      </c>
-      <c r="D166">
-        <v>180</v>
-      </c>
-      <c r="E166" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>171</v>
-      </c>
-      <c r="B167">
-        <v>-112.8</v>
-      </c>
-      <c r="C167">
-        <v>-135.5</v>
-      </c>
-      <c r="D167">
-        <v>180</v>
-      </c>
-      <c r="E167" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>172</v>
-      </c>
-      <c r="B168">
-        <v>-115.05</v>
-      </c>
-      <c r="C168">
-        <v>-153</v>
-      </c>
-      <c r="D168">
-        <v>180</v>
-      </c>
-      <c r="E168" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>173</v>
-      </c>
-      <c r="B169">
-        <v>-115.85</v>
-      </c>
-      <c r="C169">
-        <v>-108.2</v>
-      </c>
-      <c r="D169">
-        <v>90</v>
-      </c>
-      <c r="E169" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>174</v>
-      </c>
-      <c r="B170">
-        <v>-112.5</v>
-      </c>
-      <c r="C170">
-        <v>-119.1</v>
-      </c>
-      <c r="D170">
-        <v>180</v>
-      </c>
-      <c r="E170" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>175</v>
-      </c>
-      <c r="B171">
-        <v>-112.5</v>
-      </c>
-      <c r="C171">
-        <v>-131.15</v>
-      </c>
-      <c r="D171">
-        <v>180</v>
-      </c>
-      <c r="E171" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>176</v>
-      </c>
-      <c r="B172">
-        <v>-112.55</v>
-      </c>
-      <c r="C172">
-        <v>-143.25</v>
-      </c>
-      <c r="D172">
-        <v>180</v>
-      </c>
-      <c r="E172" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>177</v>
-      </c>
-      <c r="B173">
-        <v>-110.5</v>
-      </c>
-      <c r="C173">
-        <v>-106.8</v>
-      </c>
-      <c r="D173">
-        <v>180</v>
-      </c>
-      <c r="E173" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>178</v>
-      </c>
-      <c r="B174">
-        <v>-112.5</v>
-      </c>
-      <c r="C174">
-        <v>-123.6</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>179</v>
-      </c>
-      <c r="B175">
-        <v>-108.45</v>
-      </c>
-      <c r="C175">
-        <v>-130.55000000000001</v>
-      </c>
-      <c r="D175">
-        <v>180</v>
-      </c>
-      <c r="E175" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>180</v>
-      </c>
-      <c r="B176">
-        <v>-112.5</v>
-      </c>
-      <c r="C176">
-        <v>-147.44999999999999</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>181</v>
-      </c>
-      <c r="B177">
-        <v>-61.1</v>
-      </c>
-      <c r="C177">
-        <v>-54.15</v>
-      </c>
-      <c r="D177">
-        <v>-90</v>
-      </c>
-      <c r="E177" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>182</v>
-      </c>
-      <c r="B178">
-        <v>-77.650000000000006</v>
-      </c>
-      <c r="C178">
-        <v>-61.075000000000003</v>
-      </c>
-      <c r="D178">
-        <v>90</v>
-      </c>
-      <c r="E178" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>183</v>
-      </c>
-      <c r="B179">
-        <v>-87.275000000000006</v>
-      </c>
-      <c r="C179">
-        <v>-52.3</v>
-      </c>
-      <c r="D179">
-        <v>-90</v>
-      </c>
-      <c r="E179" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>184</v>
-      </c>
-      <c r="B180">
-        <v>-89.85</v>
-      </c>
-      <c r="C180">
-        <v>-52.274999999999999</v>
-      </c>
-      <c r="D180">
-        <v>-90</v>
-      </c>
-      <c r="E180" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>185</v>
-      </c>
-      <c r="B181">
-        <v>-77.875</v>
-      </c>
-      <c r="C181">
-        <v>-147.375</v>
-      </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="E181" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>186</v>
-      </c>
-      <c r="B182">
-        <v>-59.95</v>
-      </c>
-      <c r="C182">
-        <v>-145.65</v>
-      </c>
-      <c r="D182">
-        <v>180</v>
-      </c>
-      <c r="E182" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>187</v>
-      </c>
-      <c r="B183">
-        <v>-74.400000000000006</v>
-      </c>
-      <c r="C183">
-        <v>-142.69999999999999</v>
-      </c>
-      <c r="D183">
-        <v>90</v>
-      </c>
-      <c r="E183" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>188</v>
-      </c>
-      <c r="B184">
-        <v>-63.674999999999997</v>
-      </c>
-      <c r="C184">
-        <v>-143.67500000000001</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>189</v>
-      </c>
-      <c r="B185">
-        <v>-82.05</v>
-      </c>
-      <c r="C185">
-        <v>-111.02500000000001</v>
-      </c>
-      <c r="D185">
-        <v>-90</v>
-      </c>
-      <c r="E185" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>190</v>
-      </c>
-      <c r="B186">
-        <v>-77.900000000000006</v>
-      </c>
-      <c r="C186">
-        <v>-149.32499999999999</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>191</v>
-      </c>
-      <c r="B187">
-        <v>-81.924999999999997</v>
-      </c>
-      <c r="C187">
-        <v>-138.25</v>
-      </c>
-      <c r="D187">
-        <v>180</v>
-      </c>
-      <c r="E187" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>192</v>
-      </c>
-      <c r="B188">
-        <v>-77.875</v>
-      </c>
-      <c r="C188">
-        <v>-151.27500000000001</v>
-      </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>193</v>
-      </c>
-      <c r="B189">
-        <v>-81.900000000000006</v>
-      </c>
-      <c r="C189">
-        <v>-140.19999999999999</v>
-      </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-      <c r="E189" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>194</v>
-      </c>
-      <c r="B190">
-        <v>-70.25</v>
-      </c>
-      <c r="C190">
-        <v>-151.85</v>
-      </c>
-      <c r="D190">
-        <v>-90</v>
-      </c>
-      <c r="E190" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>195</v>
-      </c>
-      <c r="B191">
-        <v>-95.4</v>
-      </c>
-      <c r="C191">
-        <v>-127.075</v>
-      </c>
-      <c r="D191">
-        <v>0</v>
-      </c>
-      <c r="E191" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>196</v>
-      </c>
-      <c r="B192">
-        <v>-87.25</v>
-      </c>
-      <c r="C192">
-        <v>-150.35</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>197</v>
-      </c>
-      <c r="B193">
-        <v>-65.224999999999994</v>
-      </c>
-      <c r="C193">
-        <v>-67.25</v>
-      </c>
-      <c r="D193">
-        <v>-90</v>
-      </c>
-      <c r="E193" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>198</v>
-      </c>
-      <c r="B194">
-        <v>-62</v>
-      </c>
-      <c r="C194">
-        <v>-105.925</v>
-      </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
-      <c r="E194" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>199</v>
-      </c>
-      <c r="B195">
-        <v>-58.424999999999997</v>
-      </c>
-      <c r="C195">
-        <v>-106.425</v>
-      </c>
-      <c r="D195">
-        <v>-90</v>
-      </c>
-      <c r="E195" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>200</v>
-      </c>
-      <c r="B196">
-        <v>-68.400000000000006</v>
-      </c>
-      <c r="C196">
-        <v>-157</v>
-      </c>
-      <c r="D196">
-        <v>180</v>
-      </c>
-      <c r="E196" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>201</v>
-      </c>
-      <c r="B197">
-        <v>-95.7</v>
-      </c>
-      <c r="C197">
-        <v>-157</v>
-      </c>
-      <c r="D197">
-        <v>180</v>
-      </c>
-      <c r="E197" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>202</v>
-      </c>
-      <c r="B198">
-        <v>-75.8</v>
-      </c>
-      <c r="C198">
-        <v>-103.9</v>
-      </c>
-      <c r="D198">
-        <v>180</v>
-      </c>
-      <c r="E198" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>203</v>
-      </c>
-      <c r="B199">
-        <v>-93.5</v>
-      </c>
-      <c r="C199">
-        <v>-81.45</v>
-      </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
-      <c r="E199" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>204</v>
-      </c>
-      <c r="B200">
-        <v>-93.5</v>
-      </c>
-      <c r="C200">
-        <v>-93.4</v>
-      </c>
-      <c r="D200">
-        <v>0</v>
-      </c>
-      <c r="E200" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>205</v>
-      </c>
-      <c r="B201">
-        <v>-117.8</v>
-      </c>
-      <c r="C201">
-        <v>-67.95</v>
-      </c>
-      <c r="D201">
-        <v>-90</v>
-      </c>
-      <c r="E201" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>206</v>
-      </c>
-      <c r="B202">
-        <v>-60.7</v>
-      </c>
-      <c r="C202">
-        <v>-101.75</v>
-      </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="E202" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>207</v>
-      </c>
-      <c r="B203">
-        <v>-73.5</v>
-      </c>
-      <c r="C203">
-        <v>-93.65</v>
-      </c>
-      <c r="D203">
-        <v>90</v>
-      </c>
-      <c r="E203" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>208</v>
-      </c>
-      <c r="B204">
-        <v>-70.325000000000003</v>
-      </c>
-      <c r="C204">
-        <v>-75.849999999999994</v>
-      </c>
-      <c r="D204">
-        <v>90</v>
-      </c>
-      <c r="E204" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>209</v>
-      </c>
-      <c r="B205">
-        <v>-93.5</v>
-      </c>
-      <c r="C205">
-        <v>-119.45</v>
-      </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>210</v>
-      </c>
-      <c r="B206">
-        <v>-93.5</v>
-      </c>
-      <c r="C206">
-        <v>-143.44999999999999</v>
-      </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
-      <c r="E206" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>211</v>
-      </c>
-      <c r="B207">
-        <v>-78.7</v>
-      </c>
-      <c r="C207">
-        <v>-120.9</v>
-      </c>
-      <c r="D207">
-        <v>90</v>
-      </c>
-      <c r="E207" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>212</v>
-      </c>
-      <c r="B208">
-        <v>-99.325000000000003</v>
-      </c>
-      <c r="C208">
-        <v>-130.6</v>
-      </c>
-      <c r="D208">
-        <v>0</v>
-      </c>
-      <c r="E208" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>213</v>
-      </c>
-      <c r="B209">
-        <v>-86.3</v>
-      </c>
-      <c r="C209">
-        <v>-129.94999999999999</v>
-      </c>
-      <c r="D209">
-        <v>180</v>
-      </c>
-      <c r="E209" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>214</v>
-      </c>
-      <c r="B210">
-        <v>-117.8</v>
-      </c>
-      <c r="C210">
-        <v>-92.6</v>
-      </c>
-      <c r="D210">
-        <v>-90</v>
-      </c>
-      <c r="E210" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>215</v>
-      </c>
-      <c r="B211">
-        <v>-69.724999999999994</v>
-      </c>
-      <c r="C211">
-        <v>-88.075000000000003</v>
-      </c>
-      <c r="D211">
-        <v>0</v>
-      </c>
-      <c r="E211" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>216</v>
-      </c>
-      <c r="B212">
-        <v>-86.3</v>
-      </c>
-      <c r="C212">
-        <v>-61.8</v>
-      </c>
-      <c r="D212">
-        <v>180</v>
-      </c>
-      <c r="E212" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>217</v>
-      </c>
-      <c r="B213">
-        <v>-117.8</v>
-      </c>
-      <c r="C213">
-        <v>-117.95</v>
-      </c>
-      <c r="D213">
-        <v>-90</v>
-      </c>
-      <c r="E213" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>218</v>
-      </c>
-      <c r="B214">
-        <v>-117.8</v>
-      </c>
-      <c r="C214">
-        <v>-141.85</v>
-      </c>
-      <c r="D214">
-        <v>-90</v>
-      </c>
-      <c r="E214" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>219</v>
-      </c>
-      <c r="B215">
-        <v>-69.3</v>
-      </c>
-      <c r="C215">
-        <v>-143.57499999999999</v>
-      </c>
-      <c r="D215">
-        <v>180</v>
-      </c>
-      <c r="E215" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
